--- a/Code/Results/Cases/Case_6_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_52/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.96156406641915</v>
+        <v>20.96156406641917</v>
       </c>
       <c r="C2">
-        <v>14.32746209681931</v>
+        <v>14.32746209681943</v>
       </c>
       <c r="D2">
-        <v>5.071105511336353</v>
+        <v>5.071105511336349</v>
       </c>
       <c r="E2">
-        <v>5.268568919671836</v>
+        <v>5.268568919671844</v>
       </c>
       <c r="F2">
-        <v>65.14968790916899</v>
+        <v>65.1496879091692</v>
       </c>
       <c r="G2">
-        <v>2.108682865247411</v>
+        <v>2.108682865247692</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.581191666317928</v>
+        <v>6.581191666317975</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.63469933315925</v>
+        <v>13.63469933315918</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.42957174938203</v>
+        <v>19.42957174938202</v>
       </c>
       <c r="C3">
-        <v>13.2411234996336</v>
+        <v>13.24112349963352</v>
       </c>
       <c r="D3">
-        <v>4.761396258118779</v>
+        <v>4.761396258118858</v>
       </c>
       <c r="E3">
-        <v>5.335076930743716</v>
+        <v>5.335076930743599</v>
       </c>
       <c r="F3">
-        <v>61.80480570046263</v>
+        <v>61.80480570046271</v>
       </c>
       <c r="G3">
-        <v>2.123672152690763</v>
+        <v>2.123672152690627</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.532186019422221</v>
+        <v>6.532186019422307</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.07786660375858</v>
+        <v>13.07786660375859</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.57542783153252</v>
+        <v>18.57542783153249</v>
       </c>
       <c r="C4">
-        <v>12.54900696344778</v>
+        <v>12.54900696344787</v>
       </c>
       <c r="D4">
-        <v>4.565830569108599</v>
+        <v>4.565830569108524</v>
       </c>
       <c r="E4">
-        <v>5.378008433709362</v>
+        <v>5.378008433709429</v>
       </c>
       <c r="F4">
-        <v>59.72018351451314</v>
+        <v>59.72018351451302</v>
       </c>
       <c r="G4">
-        <v>2.133007677815169</v>
+        <v>2.133007677815314</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.504658406194603</v>
+        <v>6.504658406194578</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.74302448838233</v>
+        <v>12.74302448838228</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.22250972976256</v>
+        <v>18.22250972976258</v>
       </c>
       <c r="C5">
-        <v>12.26047295930493</v>
+        <v>12.26047295930492</v>
       </c>
       <c r="D5">
-        <v>4.484750170409574</v>
+        <v>4.484750170409519</v>
       </c>
       <c r="E5">
-        <v>5.396036133742611</v>
+        <v>5.396036133742672</v>
       </c>
       <c r="F5">
-        <v>58.86317754368461</v>
+        <v>58.86317754368431</v>
       </c>
       <c r="G5">
-        <v>2.136851001236699</v>
+        <v>2.136851001236704</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.494049962249806</v>
+        <v>6.494049962249712</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.60843206948572</v>
+        <v>12.60843206948573</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.16362073193817</v>
+        <v>18.16362073193815</v>
       </c>
       <c r="C6">
         <v>12.21216573918208</v>
       </c>
       <c r="D6">
-        <v>4.471202642341985</v>
+        <v>4.471202642341905</v>
       </c>
       <c r="E6">
-        <v>5.399061964830691</v>
+        <v>5.39906196483089</v>
       </c>
       <c r="F6">
-        <v>58.7204303433723</v>
+        <v>58.720430343372</v>
       </c>
       <c r="G6">
         <v>2.137491697532751</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.492324267095611</v>
+        <v>6.492324267095684</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.58619832465576</v>
+        <v>12.58619832465585</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.5706876468631</v>
+        <v>18.57068764686311</v>
       </c>
       <c r="C7">
-        <v>12.54514217725454</v>
+        <v>12.54514217725449</v>
       </c>
       <c r="D7">
-        <v>4.564742726010429</v>
+        <v>4.56474272601046</v>
       </c>
       <c r="E7">
-        <v>5.37824939680982</v>
+        <v>5.378249396809812</v>
       </c>
       <c r="F7">
-        <v>59.70865553975542</v>
+        <v>59.70865553975564</v>
       </c>
       <c r="G7">
-        <v>2.13305934497525</v>
+        <v>2.133059344975111</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.50451291423972</v>
+        <v>6.504512914239719</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.74120167180235</v>
+        <v>12.7412016718024</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.43722122777665</v>
+        <v>20.43722122777661</v>
       </c>
       <c r="C8">
-        <v>13.95797937927325</v>
+        <v>13.95797937927328</v>
       </c>
       <c r="D8">
-        <v>4.965417774541359</v>
+        <v>4.965417774541279</v>
       </c>
       <c r="E8">
-        <v>5.291069619792624</v>
+        <v>5.291069619792773</v>
       </c>
       <c r="F8">
-        <v>64.00286143874084</v>
+        <v>64.00286143874034</v>
       </c>
       <c r="G8">
-        <v>2.113827471737941</v>
+        <v>2.113827471738066</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.563740780654606</v>
+        <v>6.563740780654652</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.4412801838598</v>
+        <v>13.44128018385985</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.09469295109156</v>
+        <v>24.09469295109162</v>
       </c>
       <c r="C9">
-        <v>16.54009762989052</v>
+        <v>16.54009762989059</v>
       </c>
       <c r="D9">
-        <v>5.710393614683132</v>
+        <v>5.710393614683187</v>
       </c>
       <c r="E9">
-        <v>5.136455634112642</v>
+        <v>5.136455634112577</v>
       </c>
       <c r="F9">
-        <v>72.17976923147576</v>
+        <v>72.17976923147604</v>
       </c>
       <c r="G9">
-        <v>2.076860580196811</v>
+        <v>2.076860580196818</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.701973624347754</v>
+        <v>6.701973624347675</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.22225016844988</v>
+        <v>15.22225016844993</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>26.63391961417215</v>
       </c>
       <c r="C10">
-        <v>18.34143378438008</v>
+        <v>18.34143378438009</v>
       </c>
       <c r="D10">
-        <v>6.237260855510805</v>
+        <v>6.237260855510889</v>
       </c>
       <c r="E10">
-        <v>5.032408316382996</v>
+        <v>5.032408316382794</v>
       </c>
       <c r="F10">
-        <v>78.05878783945056</v>
+        <v>78.05878783945069</v>
       </c>
       <c r="G10">
-        <v>2.049663480482402</v>
+        <v>2.049663480482133</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.819806456792824</v>
+        <v>6.819806456792782</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.83196539200477</v>
+        <v>16.83196539200479</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.76360030779614</v>
+        <v>27.76360030779637</v>
       </c>
       <c r="C11">
-        <v>19.14576031663972</v>
+        <v>19.14576031663973</v>
       </c>
       <c r="D11">
-        <v>6.473922583518243</v>
+        <v>6.473922583518221</v>
       </c>
       <c r="E11">
-        <v>4.987046332058137</v>
+        <v>4.987046332058275</v>
       </c>
       <c r="F11">
-        <v>80.71575434387458</v>
+        <v>80.71575434387535</v>
       </c>
       <c r="G11">
-        <v>2.037146232089281</v>
+        <v>2.037146232089548</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.877703090147716</v>
+        <v>6.87770309014773</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.54625773850181</v>
+        <v>17.54625773850188</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.18843648770152</v>
+        <v>28.18843648770134</v>
       </c>
       <c r="C12">
-        <v>19.44876243461119</v>
+        <v>19.44876243461109</v>
       </c>
       <c r="D12">
-        <v>6.563263695026084</v>
+        <v>6.563263695025956</v>
       </c>
       <c r="E12">
-        <v>4.970142833298944</v>
+        <v>4.970142833298998</v>
       </c>
       <c r="F12">
-        <v>81.72069656888935</v>
+        <v>81.72069656888891</v>
       </c>
       <c r="G12">
-        <v>2.032371314022609</v>
+        <v>2.032371314022747</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.900321571824497</v>
+        <v>6.900321571824501</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.8146383578767</v>
+        <v>17.81463835787659</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.0970586581503</v>
+        <v>28.0970586581505</v>
       </c>
       <c r="C13">
-        <v>19.38356490063272</v>
+        <v>19.38356490063267</v>
       </c>
       <c r="D13">
-        <v>6.544031952501659</v>
+        <v>6.544031952501859</v>
       </c>
       <c r="E13">
-        <v>4.973771270622361</v>
+        <v>4.973771270622279</v>
       </c>
       <c r="F13">
-        <v>81.50429184913104</v>
+        <v>81.50429184913179</v>
       </c>
       <c r="G13">
-        <v>2.033401484214715</v>
+        <v>2.033401484214711</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.895418017523058</v>
+        <v>6.895418017523093</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.7569228608019</v>
+        <v>17.75692286080193</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>27.7986063434977</v>
       </c>
       <c r="C14">
-        <v>19.17071627196605</v>
+        <v>19.17071627196615</v>
       </c>
       <c r="D14">
-        <v>6.481277268859928</v>
+        <v>6.481277268859984</v>
       </c>
       <c r="E14">
-        <v>4.985650233826823</v>
+        <v>4.985650233826872</v>
       </c>
       <c r="F14">
-        <v>80.79844641950251</v>
+        <v>80.79844641950281</v>
       </c>
       <c r="G14">
-        <v>2.036754186644743</v>
+        <v>2.036754186645002</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.879549519668939</v>
+        <v>6.879549519668974</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.56837672079969</v>
+        <v>17.5683767207997</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.61543519380064</v>
+        <v>27.61543519380054</v>
       </c>
       <c r="C15">
-        <v>19.04015449763977</v>
+        <v>19.04015449763991</v>
       </c>
       <c r="D15">
-        <v>6.442807317436571</v>
+        <v>6.442807317436563</v>
       </c>
       <c r="E15">
-        <v>4.992961848423612</v>
+        <v>4.992961848423552</v>
       </c>
       <c r="F15">
-        <v>80.36598650920713</v>
+        <v>80.36598650920698</v>
       </c>
       <c r="G15">
-        <v>2.038802803987117</v>
+        <v>2.038802803987367</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.869922549486152</v>
+        <v>6.869922549486137</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.4526282039476</v>
+        <v>17.45262820394755</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.55963770934561</v>
+        <v>26.55963770934565</v>
       </c>
       <c r="C16">
-        <v>18.28861309830954</v>
+        <v>18.28861309830942</v>
       </c>
       <c r="D16">
-        <v>6.221746324133555</v>
+        <v>6.221746324133571</v>
       </c>
       <c r="E16">
-        <v>5.035411705963027</v>
+        <v>5.035411705963078</v>
       </c>
       <c r="F16">
-        <v>77.88490093809089</v>
+        <v>77.88490093809106</v>
       </c>
       <c r="G16">
-        <v>2.050477452239242</v>
+        <v>2.050477452239107</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.816115429764863</v>
+        <v>6.816115429764849</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.78496189582335</v>
+        <v>16.78496189582336</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>25.90588485988322</v>
       </c>
       <c r="C17">
-        <v>17.82408188358115</v>
+        <v>17.82408188358101</v>
       </c>
       <c r="D17">
-        <v>6.085460665731674</v>
+        <v>6.085460665731665</v>
       </c>
       <c r="E17">
-        <v>5.061951612715226</v>
+        <v>5.061951612715295</v>
       </c>
       <c r="F17">
-        <v>76.35917771279757</v>
+        <v>76.35917771279789</v>
       </c>
       <c r="G17">
-        <v>2.057593125744777</v>
+        <v>2.057593125744654</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.784256667096835</v>
+        <v>6.784256667096853</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.37107980263905</v>
+        <v>16.37107980263907</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.52741989092789</v>
+        <v>25.52741989092791</v>
       </c>
       <c r="C18">
-        <v>17.55543150016248</v>
+        <v>17.55543150016251</v>
       </c>
       <c r="D18">
-        <v>6.006777915644451</v>
+        <v>6.00677791564452</v>
       </c>
       <c r="E18">
-        <v>5.077402659987325</v>
+        <v>5.07740265998726</v>
       </c>
       <c r="F18">
-        <v>75.47988004691794</v>
+        <v>75.47988004691818</v>
       </c>
       <c r="G18">
-        <v>2.061673191276975</v>
+        <v>2.061673191276713</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.766331183052261</v>
+        <v>6.766331183052274</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.13130058436361</v>
+        <v>16.13130058436364</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.39883931341175</v>
+        <v>25.39883931341176</v>
       </c>
       <c r="C19">
-        <v>17.46420344748717</v>
+        <v>17.4642034474872</v>
       </c>
       <c r="D19">
-        <v>5.980082477743631</v>
+        <v>5.980082477743633</v>
       </c>
       <c r="E19">
-        <v>5.0826663257758</v>
+        <v>5.082666325775746</v>
       </c>
       <c r="F19">
-        <v>75.18183240863823</v>
+        <v>75.18183240863826</v>
       </c>
       <c r="G19">
-        <v>2.063052838318865</v>
+        <v>2.063052838318979</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.760328303719289</v>
+        <v>6.76032830371929</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.97572622708815</v>
+        <v>25.97572622708818</v>
       </c>
       <c r="C20">
-        <v>17.87367966054511</v>
+        <v>17.87367966054528</v>
       </c>
       <c r="D20">
-        <v>6.099998007995904</v>
+        <v>6.099998007995962</v>
       </c>
       <c r="E20">
-        <v>5.059107207464853</v>
+        <v>5.059107207464849</v>
       </c>
       <c r="F20">
         <v>76.52176565206888</v>
       </c>
       <c r="G20">
-        <v>2.05683705582196</v>
+        <v>2.056837055822091</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.78760629693744</v>
+        <v>6.787606296937419</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.41531362273122</v>
+        <v>16.41531362273129</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.88634266278647</v>
+        <v>27.88634266278657</v>
       </c>
       <c r="C21">
-        <v>19.23327255982789</v>
+        <v>19.23327255982782</v>
       </c>
       <c r="D21">
-        <v>6.499715947847894</v>
+        <v>6.499715947848062</v>
       </c>
       <c r="E21">
-        <v>4.982153733535172</v>
+        <v>4.982153733535206</v>
       </c>
       <c r="F21">
-        <v>81.00579013309741</v>
+        <v>81.00579013309783</v>
       </c>
       <c r="G21">
-        <v>2.035770489776178</v>
+        <v>2.035770489776062</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.884190954643375</v>
+        <v>6.884190954643363</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.62381018967674</v>
+        <v>17.62381018967675</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.1182968168252</v>
+        <v>29.11829681682533</v>
       </c>
       <c r="C22">
-        <v>20.11301550647917</v>
+        <v>20.11301550647922</v>
       </c>
       <c r="D22">
-        <v>6.75943761897915</v>
+        <v>6.75943761897932</v>
       </c>
       <c r="E22">
-        <v>4.933452783627656</v>
+        <v>4.933452783627728</v>
       </c>
       <c r="F22">
-        <v>83.93033665494815</v>
+        <v>83.93033665494923</v>
       </c>
       <c r="G22">
-        <v>2.021790130812755</v>
+        <v>2.021790130812764</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.951408406368757</v>
+        <v>6.95140840636876</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.4016479992501</v>
+        <v>18.40164799925012</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.46203586752858</v>
+        <v>28.46203586752856</v>
       </c>
       <c r="C23">
-        <v>19.64405709512219</v>
+        <v>19.64405709512222</v>
       </c>
       <c r="D23">
-        <v>6.620896535280714</v>
+        <v>6.620896535280646</v>
       </c>
       <c r="E23">
-        <v>4.959302988267676</v>
+        <v>4.959302988267734</v>
       </c>
       <c r="F23">
-        <v>82.36945281175024</v>
+        <v>82.36945281175018</v>
       </c>
       <c r="G23">
-        <v>2.029276524815645</v>
+        <v>2.029276524815912</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.98741462882157</v>
+        <v>17.98741462882155</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.94415913723061</v>
+        <v>25.94415913723077</v>
       </c>
       <c r="C24">
-        <v>17.85126148592799</v>
+        <v>17.8512614859281</v>
       </c>
       <c r="D24">
-        <v>6.093426715502788</v>
+        <v>6.09342671550271</v>
       </c>
       <c r="E24">
-        <v>5.060392561555662</v>
+        <v>5.06039256155574</v>
       </c>
       <c r="F24">
-        <v>76.44826640048508</v>
+        <v>76.44826640048487</v>
       </c>
       <c r="G24">
-        <v>2.057178907753909</v>
+        <v>2.05717890775365</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.786090718401468</v>
+        <v>6.786090718401459</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.39532125635762</v>
+        <v>16.39532125635773</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.13311646884196</v>
+        <v>23.13311646884183</v>
       </c>
       <c r="C25">
-        <v>15.86000862615949</v>
+        <v>15.86000862615961</v>
       </c>
       <c r="D25">
-        <v>5.512846434764231</v>
+        <v>5.512846434764145</v>
       </c>
       <c r="E25">
-        <v>5.176574195216602</v>
+        <v>5.176574195216614</v>
       </c>
       <c r="F25">
-        <v>69.99272938721782</v>
+        <v>69.99272938721741</v>
       </c>
       <c r="G25">
-        <v>2.08682739078107</v>
+        <v>2.086827390780939</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.661946521253058</v>
+        <v>6.661946521253053</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_52/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.96156406641917</v>
+        <v>20.7009865455953</v>
       </c>
       <c r="C2">
-        <v>14.32746209681943</v>
+        <v>16.6308210812957</v>
       </c>
       <c r="D2">
-        <v>5.071105511336349</v>
+        <v>5.11800955885975</v>
       </c>
       <c r="E2">
-        <v>5.268568919671844</v>
+        <v>7.863671853592972</v>
       </c>
       <c r="F2">
-        <v>65.1496879091692</v>
+        <v>26.72019625650059</v>
       </c>
       <c r="G2">
-        <v>2.108682865247692</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>33.53156880640646</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.520057004824666</v>
       </c>
       <c r="J2">
-        <v>6.581191666317975</v>
+        <v>11.1074962221162</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>15.80671827579933</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.709551114032346</v>
       </c>
       <c r="M2">
-        <v>13.63469933315918</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15.38440410878002</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.42957174938202</v>
+        <v>19.32094532307859</v>
       </c>
       <c r="C3">
-        <v>13.24112349963352</v>
+        <v>15.50320335305052</v>
       </c>
       <c r="D3">
-        <v>4.761396258118858</v>
+        <v>4.995110572760748</v>
       </c>
       <c r="E3">
-        <v>5.335076930743599</v>
+        <v>7.798092410071048</v>
       </c>
       <c r="F3">
-        <v>61.80480570046271</v>
+        <v>26.1237834382684</v>
       </c>
       <c r="G3">
-        <v>2.123672152690627</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>32.51073714533879</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.769504098500177</v>
       </c>
       <c r="J3">
-        <v>6.532186019422307</v>
+        <v>11.0462029746653</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.89059724321281</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.755138125610493</v>
       </c>
       <c r="M3">
-        <v>13.07786660375859</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>14.56829327424957</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.57542783153249</v>
+        <v>18.42297373376638</v>
       </c>
       <c r="C4">
-        <v>12.54900696344787</v>
+        <v>14.77662200619388</v>
       </c>
       <c r="D4">
-        <v>4.565830569108524</v>
+        <v>4.921388998664958</v>
       </c>
       <c r="E4">
-        <v>5.378008433709429</v>
+        <v>7.76266824838598</v>
       </c>
       <c r="F4">
-        <v>59.72018351451302</v>
+        <v>25.76961038969998</v>
       </c>
       <c r="G4">
-        <v>2.133007677815314</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>31.89385509236266</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.928215697200704</v>
       </c>
       <c r="J4">
-        <v>6.504658406194578</v>
+        <v>11.01478233358238</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>15.95058433901951</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.785404198774803</v>
       </c>
       <c r="M4">
-        <v>12.74302448838228</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>14.04946340127174</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.22250972976258</v>
+        <v>18.04330673975049</v>
       </c>
       <c r="C5">
-        <v>12.26047295930492</v>
+        <v>14.48358066790866</v>
       </c>
       <c r="D5">
-        <v>4.484750170409519</v>
+        <v>4.894756678303124</v>
       </c>
       <c r="E5">
-        <v>5.396036133742672</v>
+        <v>7.750061067524087</v>
       </c>
       <c r="F5">
-        <v>58.86317754368431</v>
+        <v>25.6125019466198</v>
       </c>
       <c r="G5">
-        <v>2.136851001236704</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>31.61609399742591</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.997299601997256</v>
       </c>
       <c r="J5">
-        <v>6.494049962249712</v>
+        <v>10.99807666259499</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.96604503249254</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.797814225493956</v>
       </c>
       <c r="M5">
-        <v>12.60843206948573</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>13.83669955984984</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.16362073193815</v>
+        <v>17.97834559127602</v>
       </c>
       <c r="C6">
-        <v>12.21216573918208</v>
+        <v>14.44871666444996</v>
       </c>
       <c r="D6">
-        <v>4.471202642341905</v>
+        <v>4.893963133455064</v>
       </c>
       <c r="E6">
-        <v>5.39906196483089</v>
+        <v>7.748811595405831</v>
       </c>
       <c r="F6">
-        <v>58.720430343372</v>
+        <v>25.56718947586077</v>
       </c>
       <c r="G6">
-        <v>2.137491697532751</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>31.53454410774421</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.012705003046514</v>
       </c>
       <c r="J6">
-        <v>6.492324267095684</v>
+        <v>10.98878002518206</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.9552992820304</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.799318728498322</v>
       </c>
       <c r="M6">
-        <v>12.58619832465585</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>13.80468227750792</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.57068764686311</v>
+        <v>18.41485505731607</v>
       </c>
       <c r="C7">
-        <v>12.54514217725449</v>
+        <v>14.81082369273631</v>
       </c>
       <c r="D7">
-        <v>4.56474272601046</v>
+        <v>4.930765702586982</v>
       </c>
       <c r="E7">
-        <v>5.378249396809812</v>
+        <v>7.764596987430814</v>
       </c>
       <c r="F7">
-        <v>59.70865553975564</v>
+        <v>25.71483937029162</v>
       </c>
       <c r="G7">
-        <v>2.133059344975111</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>31.79380887906127</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.939406866734286</v>
       </c>
       <c r="J7">
-        <v>6.504512914239719</v>
+        <v>10.99653437566162</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>15.91406219019477</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.783963833457189</v>
       </c>
       <c r="M7">
-        <v>12.7412016718024</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>14.05612670926948</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.43722122777661</v>
+        <v>20.23186432438907</v>
       </c>
       <c r="C8">
-        <v>13.95797937927328</v>
+        <v>16.29542358944154</v>
       </c>
       <c r="D8">
-        <v>4.965417774541279</v>
+        <v>5.087763037783001</v>
       </c>
       <c r="E8">
-        <v>5.291069619792773</v>
+        <v>7.842801405612716</v>
       </c>
       <c r="F8">
-        <v>64.00286143874034</v>
+        <v>26.44436736568108</v>
       </c>
       <c r="G8">
-        <v>2.113827471738066</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>33.05490196485182</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.618517380380274</v>
       </c>
       <c r="J8">
-        <v>6.563740780654652</v>
+        <v>11.06143625000216</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.7851424762213</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.722681449346072</v>
       </c>
       <c r="M8">
-        <v>13.44128018385985</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>15.11848546591856</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.09469295109162</v>
+        <v>23.40168250802295</v>
       </c>
       <c r="C9">
-        <v>16.54009762989059</v>
+        <v>18.8779287591153</v>
       </c>
       <c r="D9">
-        <v>5.710393614683187</v>
+        <v>5.391353779596862</v>
       </c>
       <c r="E9">
-        <v>5.136455634112577</v>
+        <v>8.031651671878141</v>
       </c>
       <c r="F9">
-        <v>72.17976923147604</v>
+        <v>28.0580923839863</v>
       </c>
       <c r="G9">
-        <v>2.076860580196818</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>35.76071369150356</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.925771725986217</v>
       </c>
       <c r="J9">
-        <v>6.701973624347675</v>
+        <v>11.27237828529054</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>15.67145063031337</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.624078988845842</v>
       </c>
       <c r="M9">
-        <v>15.22225016844993</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>17.03855372373671</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.63391961417215</v>
+        <v>25.49153206425235</v>
       </c>
       <c r="C10">
-        <v>18.34143378438009</v>
+        <v>20.63101676877056</v>
       </c>
       <c r="D10">
-        <v>6.237260855510889</v>
+        <v>5.624530902880993</v>
       </c>
       <c r="E10">
-        <v>5.032408316382794</v>
+        <v>8.19630183935775</v>
       </c>
       <c r="F10">
-        <v>78.05878783945069</v>
+        <v>29.27223695276118</v>
       </c>
       <c r="G10">
-        <v>2.049663480482133</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>37.73682202174298</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.337085314077234</v>
       </c>
       <c r="J10">
-        <v>6.819806456792782</v>
+        <v>11.45375766952045</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>15.62297845836483</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.563300390575156</v>
       </c>
       <c r="M10">
-        <v>16.83196539200479</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>18.55888936439821</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.76360030779637</v>
+        <v>26.3880697604967</v>
       </c>
       <c r="C11">
-        <v>19.14576031663973</v>
+        <v>21.43882148836259</v>
       </c>
       <c r="D11">
-        <v>6.473922583518221</v>
+        <v>5.74508163783775</v>
       </c>
       <c r="E11">
-        <v>4.987046332058275</v>
+        <v>8.280035608388099</v>
       </c>
       <c r="F11">
-        <v>80.71575434387535</v>
+        <v>29.76164388534979</v>
       </c>
       <c r="G11">
-        <v>2.037146232089548</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>38.51174132449069</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.524649685499817</v>
       </c>
       <c r="J11">
-        <v>6.87770309014773</v>
+        <v>11.51700440717965</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>15.55479958083809</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.536039933630002</v>
       </c>
       <c r="M11">
-        <v>17.54625773850188</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>19.22883332829771</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.18843648770134</v>
+        <v>26.72245091562754</v>
       </c>
       <c r="C12">
-        <v>19.44876243461109</v>
+        <v>21.7155971375309</v>
       </c>
       <c r="D12">
-        <v>6.563263695025956</v>
+        <v>5.783453304823006</v>
       </c>
       <c r="E12">
-        <v>4.970142833298998</v>
+        <v>8.310821663712451</v>
       </c>
       <c r="F12">
-        <v>81.72069656888891</v>
+        <v>29.98858974701104</v>
       </c>
       <c r="G12">
-        <v>2.032371314022747</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>38.8764781050252</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.59356597416612</v>
       </c>
       <c r="J12">
-        <v>6.900321571824501</v>
+        <v>11.55705119874917</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>15.5629160763898</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.527531730908026</v>
       </c>
       <c r="M12">
-        <v>17.81463835787659</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>19.47235734225364</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.0970586581505</v>
+        <v>26.65115309688629</v>
       </c>
       <c r="C13">
-        <v>19.38356490063267</v>
+        <v>21.65144510068654</v>
       </c>
       <c r="D13">
-        <v>6.544031952501859</v>
+        <v>5.773725230590342</v>
       </c>
       <c r="E13">
-        <v>4.973771270622279</v>
+        <v>8.303807560772446</v>
       </c>
       <c r="F13">
-        <v>81.50429184913179</v>
+        <v>29.94756526637438</v>
       </c>
       <c r="G13">
-        <v>2.033401484214711</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>38.81178996178101</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.578346637565875</v>
       </c>
       <c r="J13">
-        <v>6.895418017523093</v>
+        <v>11.55132696780194</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>15.56745194051451</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.529618434510543</v>
       </c>
       <c r="M13">
-        <v>17.75692286080193</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>19.41907504281703</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.7986063434977</v>
+        <v>26.41589356644723</v>
       </c>
       <c r="C14">
-        <v>19.17071627196615</v>
+        <v>21.4596501393434</v>
       </c>
       <c r="D14">
-        <v>6.481277268859984</v>
+        <v>5.747613387169472</v>
       </c>
       <c r="E14">
-        <v>4.985650233826872</v>
+        <v>8.282404064442407</v>
       </c>
       <c r="F14">
-        <v>80.79844641950281</v>
+        <v>29.78366617478824</v>
       </c>
       <c r="G14">
-        <v>2.036754186645002</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>38.54767467131033</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.53015061558308</v>
       </c>
       <c r="J14">
-        <v>6.879549519668974</v>
+        <v>11.52153300699376</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>15.55813571202067</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.535447534751363</v>
       </c>
       <c r="M14">
-        <v>17.5683767207997</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>19.24851524283364</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.61543519380054</v>
+        <v>26.27006266307136</v>
       </c>
       <c r="C15">
-        <v>19.04015449763991</v>
+        <v>21.35107436034498</v>
       </c>
       <c r="D15">
-        <v>6.442807317436563</v>
+        <v>5.734534521328186</v>
       </c>
       <c r="E15">
-        <v>4.992961848423552</v>
+        <v>8.270087855817335</v>
       </c>
       <c r="F15">
-        <v>80.36598650920698</v>
+        <v>29.66771676662855</v>
       </c>
       <c r="G15">
-        <v>2.038802803987367</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>38.35828036301577</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.50147184306534</v>
       </c>
       <c r="J15">
-        <v>6.869922549486137</v>
+        <v>11.49759731121724</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>15.54013842470128</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.538536074466152</v>
       </c>
       <c r="M15">
-        <v>17.45262820394755</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>19.14551717993716</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.55963770934565</v>
+        <v>25.42507239831867</v>
       </c>
       <c r="C16">
-        <v>18.28861309830942</v>
+        <v>20.65970553957728</v>
       </c>
       <c r="D16">
-        <v>6.221746324133571</v>
+        <v>5.64144072164652</v>
       </c>
       <c r="E16">
-        <v>5.035411705963078</v>
+        <v>8.196767852508824</v>
       </c>
       <c r="F16">
-        <v>77.88490093809106</v>
+        <v>29.10586278353638</v>
       </c>
       <c r="G16">
-        <v>2.050477452239107</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>37.44883962091909</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.331403527281596</v>
       </c>
       <c r="J16">
-        <v>6.816115429764849</v>
+        <v>11.40014514489947</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>15.52152322353236</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.560579129350798</v>
       </c>
       <c r="M16">
-        <v>16.78496189582336</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>18.53252801656008</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.90588485988322</v>
+        <v>24.89384113290844</v>
       </c>
       <c r="C17">
-        <v>17.82408188358101</v>
+        <v>20.22719093631127</v>
       </c>
       <c r="D17">
-        <v>6.085460665731665</v>
+        <v>5.584513522339984</v>
       </c>
       <c r="E17">
-        <v>5.061951612715295</v>
+        <v>8.153213654016691</v>
       </c>
       <c r="F17">
-        <v>76.35917771279789</v>
+        <v>28.76406691542661</v>
       </c>
       <c r="G17">
-        <v>2.057593125744654</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>36.89220899663372</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.226689886988792</v>
       </c>
       <c r="J17">
-        <v>6.784256667096853</v>
+        <v>11.34269170080274</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>15.51416924081172</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.5748932946679</v>
       </c>
       <c r="M17">
-        <v>16.37107980263907</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>18.14789007402678</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.52741989092791</v>
+        <v>24.58566485405144</v>
       </c>
       <c r="C18">
-        <v>17.55543150016251</v>
+        <v>19.94959695836901</v>
       </c>
       <c r="D18">
-        <v>6.00677791564452</v>
+        <v>5.544204079584041</v>
       </c>
       <c r="E18">
-        <v>5.07740265998726</v>
+        <v>8.126901670518311</v>
       </c>
       <c r="F18">
-        <v>75.47988004691818</v>
+        <v>28.61005552834865</v>
       </c>
       <c r="G18">
-        <v>2.061673191276713</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>36.64610175297317</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.163279874995404</v>
       </c>
       <c r="J18">
-        <v>6.766331183052274</v>
+        <v>11.32563519742693</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>15.54350098880577</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.584792961560891</v>
       </c>
       <c r="M18">
-        <v>16.13130058436364</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>17.91781360402732</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.39883931341176</v>
+        <v>24.47886308498177</v>
       </c>
       <c r="C19">
-        <v>17.4642034474872</v>
+        <v>19.87485672934559</v>
       </c>
       <c r="D19">
-        <v>5.980082477743633</v>
+        <v>5.536454881608472</v>
       </c>
       <c r="E19">
-        <v>5.082666325775746</v>
+        <v>8.119453605141445</v>
       </c>
       <c r="F19">
-        <v>75.18183240863826</v>
+        <v>28.52613390522508</v>
       </c>
       <c r="G19">
-        <v>2.063052838318979</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>36.50625090703299</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.144032588431905</v>
       </c>
       <c r="J19">
-        <v>6.76032830371929</v>
+        <v>11.30832323405186</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>15.52889058016096</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.587125810944006</v>
       </c>
       <c r="M19">
-        <v>16.04980598604036</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>17.84372354565815</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.97572622708818</v>
+        <v>24.95104834936411</v>
       </c>
       <c r="C20">
-        <v>17.87367966054528</v>
+        <v>20.27156169775018</v>
       </c>
       <c r="D20">
-        <v>6.099998007995962</v>
+        <v>5.589970294113921</v>
       </c>
       <c r="E20">
-        <v>5.059107207464849</v>
+        <v>8.157656943843554</v>
       </c>
       <c r="F20">
-        <v>76.52176565206888</v>
+        <v>28.80357389496475</v>
       </c>
       <c r="G20">
-        <v>2.056837055822091</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>36.95713032124748</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.237613862227911</v>
       </c>
       <c r="J20">
-        <v>6.787606296937419</v>
+        <v>11.34990564843763</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>15.51732161586393</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.573448557024786</v>
       </c>
       <c r="M20">
-        <v>16.41531362273129</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>18.18872504942815</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.88634266278657</v>
+        <v>26.48293830104666</v>
       </c>
       <c r="C21">
-        <v>19.23327255982782</v>
+        <v>21.54287775404847</v>
       </c>
       <c r="D21">
-        <v>6.499715947848062</v>
+        <v>5.76348908679002</v>
       </c>
       <c r="E21">
-        <v>4.982153733535206</v>
+        <v>8.290618775416888</v>
       </c>
       <c r="F21">
-        <v>81.00579013309783</v>
+        <v>29.78724386227816</v>
       </c>
       <c r="G21">
-        <v>2.035770489776062</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>38.54709249207951</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.546788927713353</v>
       </c>
       <c r="J21">
-        <v>6.884190954643363</v>
+        <v>11.51364336143887</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.52502942511742</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.53218251267948</v>
       </c>
       <c r="M21">
-        <v>17.62381018967675</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>19.30464034903353</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.11829681682533</v>
+        <v>27.44527750434279</v>
       </c>
       <c r="C22">
-        <v>20.11301550647922</v>
+        <v>22.31271875723165</v>
       </c>
       <c r="D22">
-        <v>6.75943761897932</v>
+        <v>5.86698684546787</v>
       </c>
       <c r="E22">
-        <v>4.933452783627728</v>
+        <v>8.379760705971497</v>
       </c>
       <c r="F22">
-        <v>83.93033665494923</v>
+        <v>30.49580404676589</v>
       </c>
       <c r="G22">
-        <v>2.021790130812764</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>39.68902755911836</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.744438337211069</v>
       </c>
       <c r="J22">
-        <v>6.95140840636876</v>
+        <v>11.64956949239291</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.58950372899354</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>5.509858789723583</v>
       </c>
       <c r="M22">
-        <v>18.40164799925012</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>19.99865126633815</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.46203586752856</v>
+        <v>26.93813431761324</v>
       </c>
       <c r="C23">
-        <v>19.64405709512222</v>
+        <v>21.8723646904424</v>
       </c>
       <c r="D23">
-        <v>6.620896535280646</v>
+        <v>5.801875526060563</v>
       </c>
       <c r="E23">
-        <v>4.959302988267734</v>
+        <v>8.329404840240684</v>
       </c>
       <c r="F23">
-        <v>82.36945281175018</v>
+        <v>30.17013643400757</v>
       </c>
       <c r="G23">
-        <v>2.029276524815912</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>39.17271816379274</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.636482936540014</v>
       </c>
       <c r="J23">
-        <v>6.915129207830124</v>
+        <v>11.59624440503194</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.59687516760369</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>5.523375020199441</v>
       </c>
       <c r="M23">
-        <v>17.98741462882155</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>19.62373150307349</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.94415913723077</v>
+        <v>24.92966471667093</v>
       </c>
       <c r="C24">
-        <v>17.8512614859281</v>
+        <v>20.19777973558124</v>
       </c>
       <c r="D24">
-        <v>6.09342671550271</v>
+        <v>5.571446747781543</v>
       </c>
       <c r="E24">
-        <v>5.06039256155574</v>
+        <v>8.151892792395966</v>
       </c>
       <c r="F24">
-        <v>76.44826640048487</v>
+        <v>28.87294352268793</v>
       </c>
       <c r="G24">
-        <v>2.05717890775365</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>37.08207986350767</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.227329604806679</v>
       </c>
       <c r="J24">
-        <v>6.786090718401459</v>
+        <v>11.37861795234501</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>15.58393380537985</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.577027628892654</v>
       </c>
       <c r="M24">
-        <v>16.39532125635773</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>18.15843810754372</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.13311646884183</v>
+        <v>22.58163438800979</v>
       </c>
       <c r="C25">
-        <v>15.86000862615961</v>
+        <v>18.26440304694613</v>
       </c>
       <c r="D25">
-        <v>5.512846434764145</v>
+        <v>5.324353049887288</v>
       </c>
       <c r="E25">
-        <v>5.176574195216614</v>
+        <v>7.979966693043999</v>
       </c>
       <c r="F25">
-        <v>69.99272938721741</v>
+        <v>27.523574288063</v>
       </c>
       <c r="G25">
-        <v>2.086827390780939</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>34.86433037570303</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.776600379389424</v>
       </c>
       <c r="J25">
-        <v>6.661946521253053</v>
+        <v>11.17773315685097</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>15.62712475718034</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.645791424079397</v>
       </c>
       <c r="M25">
-        <v>14.61077952490021</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>16.55026105982997</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_52/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.7009865455953</v>
+        <v>20.69543426037534</v>
       </c>
       <c r="C2">
-        <v>16.6308210812957</v>
+        <v>17.33865409142565</v>
       </c>
       <c r="D2">
-        <v>5.11800955885975</v>
+        <v>5.362283019665734</v>
       </c>
       <c r="E2">
-        <v>7.863671853592972</v>
+        <v>7.923344420665003</v>
       </c>
       <c r="F2">
-        <v>26.72019625650059</v>
+        <v>25.44112686276738</v>
       </c>
       <c r="G2">
-        <v>33.53156880640646</v>
+        <v>30.77727639317419</v>
       </c>
       <c r="I2">
-        <v>2.520057004824666</v>
+        <v>2.512650919632722</v>
       </c>
       <c r="J2">
-        <v>11.1074962221162</v>
+        <v>11.02981596627328</v>
       </c>
       <c r="K2">
-        <v>15.80671827579933</v>
+        <v>14.75443680206601</v>
       </c>
       <c r="L2">
-        <v>5.709551114032346</v>
+        <v>12.62784335482757</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.254320094577542</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.664869199896541</v>
       </c>
       <c r="O2">
-        <v>15.38440410878002</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>15.59073923120568</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.32094532307859</v>
+        <v>19.33819822864778</v>
       </c>
       <c r="C3">
-        <v>15.50320335305052</v>
+        <v>16.10578426894701</v>
       </c>
       <c r="D3">
-        <v>4.995110572760748</v>
+        <v>5.217555269809078</v>
       </c>
       <c r="E3">
-        <v>7.798092410071048</v>
+        <v>7.857488159558973</v>
       </c>
       <c r="F3">
-        <v>26.1237834382684</v>
+        <v>24.97866787153669</v>
       </c>
       <c r="G3">
-        <v>32.51073714533879</v>
+        <v>30.03219810933992</v>
       </c>
       <c r="I3">
-        <v>2.769504098500177</v>
+        <v>2.649746801144587</v>
       </c>
       <c r="J3">
-        <v>11.0462029746653</v>
+        <v>10.96268765265527</v>
       </c>
       <c r="K3">
-        <v>15.89059724321281</v>
+        <v>14.9223379627641</v>
       </c>
       <c r="L3">
-        <v>5.755138125610493</v>
+        <v>12.80841229936603</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.325927432274783</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.715674772415137</v>
       </c>
       <c r="O3">
-        <v>14.56829327424957</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>14.74321263146015</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.42297373376638</v>
+        <v>18.45478947064486</v>
       </c>
       <c r="C4">
-        <v>14.77662200619388</v>
+        <v>15.30979700399769</v>
       </c>
       <c r="D4">
-        <v>4.921388998664958</v>
+        <v>5.130645797947396</v>
       </c>
       <c r="E4">
-        <v>7.76266824838598</v>
+        <v>7.822268188476321</v>
       </c>
       <c r="F4">
-        <v>25.76961038969998</v>
+        <v>24.70506641844336</v>
       </c>
       <c r="G4">
-        <v>31.89385509236266</v>
+        <v>29.5912321801318</v>
       </c>
       <c r="I4">
-        <v>2.928215697200704</v>
+        <v>2.786140389486997</v>
       </c>
       <c r="J4">
-        <v>11.01478233358238</v>
+        <v>10.92326912066052</v>
       </c>
       <c r="K4">
-        <v>15.95058433901951</v>
+        <v>15.03095638025196</v>
       </c>
       <c r="L4">
-        <v>5.785404198774803</v>
+        <v>12.91926884738922</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.396239033381537</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.749107625364136</v>
       </c>
       <c r="O4">
-        <v>14.04946340127174</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>14.20292430740608</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.04330673975049</v>
+        <v>18.08128735455045</v>
       </c>
       <c r="C5">
-        <v>14.48358066790866</v>
+        <v>14.98651456294214</v>
       </c>
       <c r="D5">
-        <v>4.894756678303124</v>
+        <v>5.098504302232422</v>
       </c>
       <c r="E5">
-        <v>7.750061067524087</v>
+        <v>7.809789488059893</v>
       </c>
       <c r="F5">
-        <v>25.6125019466198</v>
+        <v>24.58176651522096</v>
       </c>
       <c r="G5">
-        <v>31.61609399742591</v>
+        <v>29.38908981014807</v>
       </c>
       <c r="I5">
-        <v>2.997299601997256</v>
+        <v>2.84654147048487</v>
       </c>
       <c r="J5">
-        <v>10.99807666259499</v>
+        <v>10.90277535940571</v>
       </c>
       <c r="K5">
-        <v>15.96604503249254</v>
+        <v>15.06706932270319</v>
       </c>
       <c r="L5">
-        <v>5.797814225493956</v>
+        <v>12.95615631772263</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.4253211098055</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.762847557209696</v>
       </c>
       <c r="O5">
-        <v>13.83669955984984</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>13.98063108338611</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.97834559127602</v>
+        <v>18.0174416118808</v>
       </c>
       <c r="C6">
-        <v>14.44871666444996</v>
+        <v>14.94563199550387</v>
       </c>
       <c r="D6">
-        <v>4.893963133455064</v>
+        <v>5.096547438936499</v>
       </c>
       <c r="E6">
-        <v>7.748811595405831</v>
+        <v>7.808507531427135</v>
       </c>
       <c r="F6">
-        <v>25.56718947586077</v>
+        <v>24.54383720269542</v>
       </c>
       <c r="G6">
-        <v>31.53454410774421</v>
+        <v>29.3232472345867</v>
       </c>
       <c r="I6">
-        <v>3.012705003046514</v>
+        <v>2.861162716215648</v>
       </c>
       <c r="J6">
-        <v>10.98878002518206</v>
+        <v>10.89345013185491</v>
       </c>
       <c r="K6">
-        <v>15.9552992820304</v>
+        <v>15.06160075779036</v>
       </c>
       <c r="L6">
-        <v>5.799318728498322</v>
+        <v>12.95216502532252</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.423269591148955</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.764631072832127</v>
       </c>
       <c r="O6">
-        <v>13.80468227750792</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>13.94670095959886</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.41485505731607</v>
+        <v>18.44670155598527</v>
       </c>
       <c r="C7">
-        <v>14.81082369273631</v>
+        <v>15.33001439739871</v>
       </c>
       <c r="D7">
-        <v>4.930765702586982</v>
+        <v>5.145360497413346</v>
       </c>
       <c r="E7">
-        <v>7.764596987430814</v>
+        <v>7.826362492581142</v>
       </c>
       <c r="F7">
-        <v>25.71483937029162</v>
+        <v>24.62747476674325</v>
       </c>
       <c r="G7">
-        <v>31.79380887906127</v>
+        <v>29.56548460086942</v>
       </c>
       <c r="I7">
-        <v>2.939406866734286</v>
+        <v>2.799757477960368</v>
       </c>
       <c r="J7">
-        <v>10.99653437566162</v>
+        <v>10.85488700230449</v>
       </c>
       <c r="K7">
-        <v>15.91406219019477</v>
+        <v>14.98642615505768</v>
       </c>
       <c r="L7">
-        <v>5.783963833457189</v>
+        <v>12.88098789415422</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.367347282462223</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.747424342968925</v>
       </c>
       <c r="O7">
-        <v>14.05612670926948</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>14.20854783400272</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.23186432438907</v>
+        <v>20.23351655519712</v>
       </c>
       <c r="C8">
-        <v>16.29542358944154</v>
+        <v>16.93094058175808</v>
       </c>
       <c r="D8">
-        <v>5.087763037783001</v>
+        <v>5.343306140771302</v>
       </c>
       <c r="E8">
-        <v>7.842801405612716</v>
+        <v>7.909779138965405</v>
       </c>
       <c r="F8">
-        <v>26.44436736568108</v>
+        <v>25.12705158108778</v>
       </c>
       <c r="G8">
-        <v>33.05490196485182</v>
+        <v>30.61552082800247</v>
       </c>
       <c r="I8">
-        <v>2.618517380380274</v>
+        <v>2.527032404398721</v>
       </c>
       <c r="J8">
-        <v>11.06143625000216</v>
+        <v>10.81561317415263</v>
       </c>
       <c r="K8">
-        <v>15.7851424762213</v>
+        <v>14.72522692864288</v>
       </c>
       <c r="L8">
-        <v>5.722681449346072</v>
+        <v>12.62100649211789</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.211159467449205</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.678647449727662</v>
       </c>
       <c r="O8">
-        <v>15.11848546591856</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>15.31291328133961</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.40168250802295</v>
+        <v>23.34822076988874</v>
       </c>
       <c r="C9">
-        <v>18.8779287591153</v>
+        <v>19.74824231322471</v>
       </c>
       <c r="D9">
-        <v>5.391353779596862</v>
+        <v>5.706650186083075</v>
       </c>
       <c r="E9">
-        <v>8.031651671878141</v>
+        <v>8.103504871609788</v>
       </c>
       <c r="F9">
-        <v>28.0580923839863</v>
+        <v>26.37534781771239</v>
       </c>
       <c r="G9">
-        <v>35.76071369150356</v>
+        <v>32.71267235503703</v>
       </c>
       <c r="I9">
-        <v>2.925771725986217</v>
+        <v>2.939364058485954</v>
       </c>
       <c r="J9">
-        <v>11.27237828529054</v>
+        <v>10.96955549786849</v>
       </c>
       <c r="K9">
-        <v>15.67145063031337</v>
+        <v>14.3657911920548</v>
       </c>
       <c r="L9">
-        <v>5.624078988845842</v>
+        <v>12.19679795232287</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>9.198088006124483</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5.566246226531674</v>
       </c>
       <c r="O9">
-        <v>17.03855372373671</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>17.29977128555624</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.49153206425235</v>
+        <v>25.39735130565705</v>
       </c>
       <c r="C10">
-        <v>20.63101676877056</v>
+        <v>21.60073470002223</v>
       </c>
       <c r="D10">
-        <v>5.624530902880993</v>
+        <v>6.014488552222852</v>
       </c>
       <c r="E10">
-        <v>8.19630183935775</v>
+        <v>8.28648483386479</v>
       </c>
       <c r="F10">
-        <v>29.27223695276118</v>
+        <v>27.17536352096232</v>
       </c>
       <c r="G10">
-        <v>37.73682202174298</v>
+        <v>34.6279756481867</v>
       </c>
       <c r="I10">
-        <v>3.337085314077234</v>
+        <v>3.288930613901555</v>
       </c>
       <c r="J10">
-        <v>11.45375766952045</v>
+        <v>10.80084767169271</v>
       </c>
       <c r="K10">
-        <v>15.62297845836483</v>
+        <v>14.04482325747738</v>
       </c>
       <c r="L10">
-        <v>5.563300390575156</v>
+        <v>11.82151271048442</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9.253769824242189</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>5.492795686818684</v>
       </c>
       <c r="O10">
-        <v>18.55888936439821</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>18.79035764275897</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.3880697604967</v>
+        <v>26.27355170246635</v>
       </c>
       <c r="C11">
-        <v>21.43882148836259</v>
+        <v>22.36359949402539</v>
       </c>
       <c r="D11">
-        <v>5.74508163783775</v>
+        <v>6.222577916940062</v>
       </c>
       <c r="E11">
-        <v>8.280035608388099</v>
+        <v>8.401872729301241</v>
       </c>
       <c r="F11">
-        <v>29.76164388534979</v>
+        <v>27.23045102052791</v>
       </c>
       <c r="G11">
-        <v>38.51174132449069</v>
+        <v>35.97996296503079</v>
       </c>
       <c r="I11">
-        <v>3.524649685499817</v>
+        <v>3.444938156107685</v>
       </c>
       <c r="J11">
-        <v>11.51700440717965</v>
+        <v>10.22061066601518</v>
       </c>
       <c r="K11">
-        <v>15.55479958083809</v>
+        <v>13.72247844432592</v>
       </c>
       <c r="L11">
-        <v>5.536039933630002</v>
+        <v>11.53216093642707</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>9.147483762315975</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.455846244408707</v>
       </c>
       <c r="O11">
-        <v>19.22883332829771</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>19.46022527826339</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.72245091562754</v>
+        <v>26.59981891721364</v>
       </c>
       <c r="C12">
-        <v>21.7155971375309</v>
+        <v>22.61511571244587</v>
       </c>
       <c r="D12">
-        <v>5.783453304823006</v>
+        <v>6.301230265005732</v>
       </c>
       <c r="E12">
-        <v>8.310821663712451</v>
+        <v>8.447795510451876</v>
       </c>
       <c r="F12">
-        <v>29.98858974701104</v>
+        <v>27.25857167666953</v>
       </c>
       <c r="G12">
-        <v>38.8764781050252</v>
+        <v>36.62873676934433</v>
       </c>
       <c r="I12">
-        <v>3.59356597416612</v>
+        <v>3.500398218521256</v>
       </c>
       <c r="J12">
-        <v>11.55705119874917</v>
+        <v>9.960387731459216</v>
       </c>
       <c r="K12">
-        <v>15.5629160763898</v>
+        <v>13.61087185432411</v>
       </c>
       <c r="L12">
-        <v>5.527531730908026</v>
+        <v>11.4305210900817</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>9.11859149045598</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.442977949008265</v>
       </c>
       <c r="O12">
-        <v>19.47235734225364</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>19.70328798377944</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.65115309688629</v>
+        <v>26.530239743245</v>
       </c>
       <c r="C13">
-        <v>21.65144510068654</v>
+        <v>22.55716307562169</v>
       </c>
       <c r="D13">
-        <v>5.773725230590342</v>
+        <v>6.282628121595958</v>
       </c>
       <c r="E13">
-        <v>8.303807560772446</v>
+        <v>8.437410019434742</v>
       </c>
       <c r="F13">
-        <v>29.94756526637438</v>
+        <v>27.26094285813421</v>
       </c>
       <c r="G13">
-        <v>38.81178996178101</v>
+        <v>36.49850598996316</v>
       </c>
       <c r="I13">
-        <v>3.578346637565875</v>
+        <v>3.487879715619944</v>
       </c>
       <c r="J13">
-        <v>11.55132696780194</v>
+        <v>10.02096669322099</v>
       </c>
       <c r="K13">
-        <v>15.56745194051451</v>
+        <v>13.6408332548939</v>
       </c>
       <c r="L13">
-        <v>5.529618434510543</v>
+        <v>11.45617162408447</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>9.129928801124748</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.445996996078861</v>
       </c>
       <c r="O13">
-        <v>19.41907504281703</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>19.65021926218056</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.41589356644723</v>
+        <v>26.30069608238126</v>
       </c>
       <c r="C14">
-        <v>21.4596501393434</v>
+        <v>22.38268511038745</v>
       </c>
       <c r="D14">
-        <v>5.747613387169472</v>
+        <v>6.228332016856705</v>
       </c>
       <c r="E14">
-        <v>8.282404064442407</v>
+        <v>8.405435953045107</v>
       </c>
       <c r="F14">
-        <v>29.78366617478824</v>
+        <v>27.23639387441798</v>
       </c>
       <c r="G14">
-        <v>38.54767467131033</v>
+        <v>36.03732326220521</v>
       </c>
       <c r="I14">
-        <v>3.53015061558308</v>
+        <v>3.449247815788041</v>
       </c>
       <c r="J14">
-        <v>11.52153300699376</v>
+        <v>10.20121902038895</v>
       </c>
       <c r="K14">
-        <v>15.55813571202067</v>
+        <v>13.71583957435221</v>
       </c>
       <c r="L14">
-        <v>5.535447534751363</v>
+        <v>11.525426081162</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>9.147291114769072</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.454892972066233</v>
       </c>
       <c r="O14">
-        <v>19.24851524283364</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>19.4799191411026</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.27006266307136</v>
+        <v>26.15841292200933</v>
       </c>
       <c r="C15">
-        <v>21.35107436034498</v>
+        <v>22.28279106392449</v>
       </c>
       <c r="D15">
-        <v>5.734534521328186</v>
+        <v>6.198660653159599</v>
       </c>
       <c r="E15">
-        <v>8.270087855817335</v>
+        <v>8.386992498748507</v>
       </c>
       <c r="F15">
-        <v>29.66771676662855</v>
+        <v>27.20337572423797</v>
       </c>
       <c r="G15">
-        <v>38.35828036301577</v>
+        <v>35.73890656325754</v>
       </c>
       <c r="I15">
-        <v>3.50147184306534</v>
+        <v>3.426811625818391</v>
       </c>
       <c r="J15">
-        <v>11.49759731121724</v>
+        <v>10.30023654820312</v>
       </c>
       <c r="K15">
-        <v>15.54013842470128</v>
+        <v>13.74936579147923</v>
       </c>
       <c r="L15">
-        <v>5.538536074466152</v>
+        <v>11.55987367956193</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>9.147374655058206</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.459849421638176</v>
       </c>
       <c r="O15">
-        <v>19.14551717993716</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>19.37681617868122</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.42507239831867</v>
+        <v>25.33281232220515</v>
       </c>
       <c r="C16">
-        <v>20.65970553957728</v>
+        <v>21.6254246361992</v>
       </c>
       <c r="D16">
-        <v>5.64144072164652</v>
+        <v>6.024881888145251</v>
       </c>
       <c r="E16">
-        <v>8.196767852508824</v>
+        <v>8.284848094076562</v>
       </c>
       <c r="F16">
-        <v>29.10586278353638</v>
+        <v>27.04635397824364</v>
       </c>
       <c r="G16">
-        <v>37.44883962091909</v>
+        <v>34.33230997526206</v>
       </c>
       <c r="I16">
-        <v>3.331403527281596</v>
+        <v>3.288697981080237</v>
       </c>
       <c r="J16">
-        <v>11.40014514489947</v>
+        <v>10.78962850510014</v>
       </c>
       <c r="K16">
-        <v>15.52152322353236</v>
+        <v>13.97571678144503</v>
       </c>
       <c r="L16">
-        <v>5.560579129350798</v>
+        <v>11.78017587035392</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>9.183299864742505</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.491138246152323</v>
       </c>
       <c r="O16">
-        <v>18.53252801656008</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>18.76252335661209</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.89384113290844</v>
+        <v>24.81303507971118</v>
       </c>
       <c r="C17">
-        <v>20.22719093631127</v>
+        <v>21.19587318822697</v>
       </c>
       <c r="D17">
-        <v>5.584513522339984</v>
+        <v>5.929960598546701</v>
       </c>
       <c r="E17">
-        <v>8.153213654016691</v>
+        <v>8.228733875075598</v>
       </c>
       <c r="F17">
-        <v>28.76406691542661</v>
+        <v>26.89964515461013</v>
       </c>
       <c r="G17">
-        <v>36.89220899663372</v>
+        <v>33.59611600237721</v>
       </c>
       <c r="I17">
-        <v>3.226689886988792</v>
+        <v>3.202581853676741</v>
       </c>
       <c r="J17">
-        <v>11.34269170080274</v>
+        <v>10.99084452405807</v>
       </c>
       <c r="K17">
-        <v>15.51416924081172</v>
+        <v>14.08776225382321</v>
       </c>
       <c r="L17">
-        <v>5.5748932946679</v>
+        <v>11.897669871791</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>9.187157312621547</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.510204327005724</v>
       </c>
       <c r="O17">
-        <v>18.14789007402678</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>18.37555100797382</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.58566485405144</v>
+        <v>24.51109135890038</v>
       </c>
       <c r="C18">
-        <v>19.94959695836901</v>
+        <v>20.91506555755111</v>
       </c>
       <c r="D18">
-        <v>5.544204079584041</v>
+        <v>5.872460352739967</v>
       </c>
       <c r="E18">
-        <v>8.126901670518311</v>
+        <v>8.197137745869913</v>
       </c>
       <c r="F18">
-        <v>28.61005552834865</v>
+        <v>26.83459106706415</v>
       </c>
       <c r="G18">
-        <v>36.64610175297317</v>
+        <v>33.28574066258258</v>
       </c>
       <c r="I18">
-        <v>3.163279874995404</v>
+        <v>3.148247530375416</v>
       </c>
       <c r="J18">
-        <v>11.32563519742693</v>
+        <v>11.08268485372692</v>
       </c>
       <c r="K18">
-        <v>15.54350098880577</v>
+        <v>14.16956933940134</v>
       </c>
       <c r="L18">
-        <v>5.584792961560891</v>
+        <v>11.97710343296182</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9.206031970645418</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.52236335719329</v>
       </c>
       <c r="O18">
-        <v>17.91781360402732</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>18.14398856448735</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.47886308498177</v>
+        <v>24.40651658192202</v>
       </c>
       <c r="C19">
-        <v>19.87485672934559</v>
+        <v>20.83676400201343</v>
       </c>
       <c r="D19">
-        <v>5.536454881608472</v>
+        <v>5.859181335817188</v>
       </c>
       <c r="E19">
-        <v>8.119453605141445</v>
+        <v>8.188098288969897</v>
       </c>
       <c r="F19">
-        <v>28.52613390522508</v>
+        <v>26.78062578244427</v>
       </c>
       <c r="G19">
-        <v>36.50625090703299</v>
+        <v>33.13664389790806</v>
       </c>
       <c r="I19">
-        <v>3.144032588431905</v>
+        <v>3.13293327997075</v>
       </c>
       <c r="J19">
-        <v>11.30832323405186</v>
+        <v>11.09742173180555</v>
       </c>
       <c r="K19">
-        <v>15.52889058016096</v>
+        <v>14.17499985027348</v>
       </c>
       <c r="L19">
-        <v>5.587125810944006</v>
+        <v>11.9886633466527</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.193870627284571</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.52552252684958</v>
       </c>
       <c r="O19">
-        <v>17.84372354565815</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>18.06896838566409</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.95104834936411</v>
+        <v>24.86902543189841</v>
       </c>
       <c r="C20">
-        <v>20.27156169775018</v>
+        <v>21.24074877812874</v>
       </c>
       <c r="D20">
-        <v>5.589970294113921</v>
+        <v>5.939073448545796</v>
       </c>
       <c r="E20">
-        <v>8.157656943843554</v>
+        <v>8.234336289054998</v>
       </c>
       <c r="F20">
-        <v>28.80357389496475</v>
+        <v>26.92006866321781</v>
       </c>
       <c r="G20">
-        <v>36.95713032124748</v>
+        <v>33.67495770195754</v>
       </c>
       <c r="I20">
-        <v>3.237613862227911</v>
+        <v>3.211468823883076</v>
       </c>
       <c r="J20">
-        <v>11.34990564843763</v>
+        <v>10.97425354928405</v>
       </c>
       <c r="K20">
-        <v>15.51732161586393</v>
+        <v>14.07892070460994</v>
       </c>
       <c r="L20">
-        <v>5.573448557024786</v>
+        <v>11.88726903251604</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>9.189183855702673</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5.508275780603643</v>
       </c>
       <c r="O20">
-        <v>18.18872504942815</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>18.41672655027558</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.48293830104666</v>
+        <v>26.36555678143917</v>
       </c>
       <c r="C21">
-        <v>21.54287775404847</v>
+        <v>22.42968164479511</v>
       </c>
       <c r="D21">
-        <v>5.76348908679002</v>
+        <v>6.271430242241936</v>
       </c>
       <c r="E21">
-        <v>8.290618775416888</v>
+        <v>8.424818905255091</v>
       </c>
       <c r="F21">
-        <v>29.78724386227816</v>
+        <v>27.1135411436095</v>
       </c>
       <c r="G21">
-        <v>38.54709249207951</v>
+        <v>36.30859165198826</v>
       </c>
       <c r="I21">
-        <v>3.546788927713353</v>
+        <v>3.462387202985048</v>
       </c>
       <c r="J21">
-        <v>11.51364336143887</v>
+        <v>9.97046307326867</v>
       </c>
       <c r="K21">
-        <v>15.52502942511742</v>
+        <v>13.61709745337864</v>
       </c>
       <c r="L21">
-        <v>5.53218251267948</v>
+        <v>11.4554730515682</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>9.074600016249674</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>5.449453640733507</v>
       </c>
       <c r="O21">
-        <v>19.30464034903353</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>19.53355091470053</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.44527750434279</v>
+        <v>27.30442952519895</v>
       </c>
       <c r="C22">
-        <v>22.31271875723165</v>
+        <v>23.13947474792643</v>
       </c>
       <c r="D22">
-        <v>5.86698684546787</v>
+        <v>6.48559206565325</v>
       </c>
       <c r="E22">
-        <v>8.379760705971497</v>
+        <v>8.555714722483586</v>
       </c>
       <c r="F22">
-        <v>30.49580404676589</v>
+        <v>27.27250200051585</v>
       </c>
       <c r="G22">
-        <v>39.68902755911836</v>
+        <v>38.19482720472583</v>
       </c>
       <c r="I22">
-        <v>3.744438337211069</v>
+        <v>3.620802965728292</v>
       </c>
       <c r="J22">
-        <v>11.64956949239291</v>
+        <v>9.304332544117267</v>
       </c>
       <c r="K22">
-        <v>15.58950372899354</v>
+        <v>13.3396185971244</v>
       </c>
       <c r="L22">
-        <v>5.509858789723583</v>
+        <v>11.19270108472084</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>9.036496931925241</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>5.414678025097426</v>
       </c>
       <c r="O22">
-        <v>19.99865126633815</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>20.22718377983102</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.93813431761324</v>
+        <v>26.81003893289817</v>
       </c>
       <c r="C23">
-        <v>21.8723646904424</v>
+        <v>22.75429137235822</v>
       </c>
       <c r="D23">
-        <v>5.801875526060563</v>
+        <v>6.34795967877741</v>
       </c>
       <c r="E23">
-        <v>8.329404840240684</v>
+        <v>8.477131705032193</v>
       </c>
       <c r="F23">
-        <v>30.17013643400757</v>
+        <v>27.29976127823771</v>
       </c>
       <c r="G23">
-        <v>39.17271816379274</v>
+        <v>37.1231994974197</v>
       </c>
       <c r="I23">
-        <v>3.636482936540014</v>
+        <v>3.533587040787253</v>
       </c>
       <c r="J23">
-        <v>11.59624440503194</v>
+        <v>9.788573095640793</v>
       </c>
       <c r="K23">
-        <v>15.59687516760369</v>
+        <v>13.55710534548197</v>
       </c>
       <c r="L23">
-        <v>5.523375020199441</v>
+        <v>11.37678982118684</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>9.116819749068055</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>5.435712178018584</v>
       </c>
       <c r="O23">
-        <v>19.62373150307349</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>19.8544781710627</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.92966471667093</v>
+        <v>24.84779296212155</v>
       </c>
       <c r="C24">
-        <v>20.19777973558124</v>
+        <v>21.17036833270598</v>
       </c>
       <c r="D24">
-        <v>5.571446747781543</v>
+        <v>5.919997467270792</v>
       </c>
       <c r="E24">
-        <v>8.151892792395966</v>
+        <v>8.228328628291937</v>
       </c>
       <c r="F24">
-        <v>28.87294352268793</v>
+        <v>26.98963641656504</v>
       </c>
       <c r="G24">
-        <v>37.08207986350767</v>
+        <v>33.78034366396633</v>
       </c>
       <c r="I24">
-        <v>3.227329604806679</v>
+        <v>3.199701917343077</v>
       </c>
       <c r="J24">
-        <v>11.37861795234501</v>
+        <v>11.00911169299882</v>
       </c>
       <c r="K24">
-        <v>15.58393380537985</v>
+        <v>14.13962533572517</v>
       </c>
       <c r="L24">
-        <v>5.577027628892654</v>
+        <v>11.93057020363209</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>9.236672690120486</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>5.511755599627411</v>
       </c>
       <c r="O24">
-        <v>18.15843810754372</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>18.38717897507974</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.58163438800979</v>
+        <v>22.54356054304639</v>
       </c>
       <c r="C25">
-        <v>18.26440304694613</v>
+        <v>19.08471151651536</v>
       </c>
       <c r="D25">
-        <v>5.324353049887288</v>
+        <v>5.614309201776408</v>
       </c>
       <c r="E25">
-        <v>7.979966693043999</v>
+        <v>8.046658068534196</v>
       </c>
       <c r="F25">
-        <v>27.523574288063</v>
+        <v>25.98639384331539</v>
       </c>
       <c r="G25">
-        <v>34.86433037570303</v>
+        <v>31.900262821641</v>
       </c>
       <c r="I25">
-        <v>2.776600379389424</v>
+        <v>2.815153581382577</v>
       </c>
       <c r="J25">
-        <v>11.17773315685097</v>
+        <v>10.97019594701061</v>
       </c>
       <c r="K25">
-        <v>15.62712475718034</v>
+        <v>14.42066998172331</v>
       </c>
       <c r="L25">
-        <v>5.645791424079397</v>
+        <v>12.28508176277397</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.147128748540338</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5.592619150987424</v>
       </c>
       <c r="O25">
-        <v>16.55026105982997</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>16.79432444814284</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
